--- a/Test/landmarks.xlsx
+++ b/Test/landmarks.xlsx
@@ -445,13 +445,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.7674205899238586</v>
+        <v>0.9576131701469421</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7058554887771606</v>
+        <v>0.2939626574516296</v>
       </c>
       <c r="D2" t="n">
-        <v>-2.287384510040283</v>
+        <v>-0.438229501247406</v>
       </c>
     </row>
     <row r="3">
@@ -461,13 +461,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.7924456000328064</v>
+        <v>0.9622766375541687</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6095890998840332</v>
+        <v>0.2775117754936218</v>
       </c>
       <c r="D3" t="n">
-        <v>-2.235966205596924</v>
+        <v>-0.4409414231777191</v>
       </c>
     </row>
     <row r="4">
@@ -477,13 +477,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.8151467442512512</v>
+        <v>0.9638760089874268</v>
       </c>
       <c r="C4" t="n">
-        <v>0.603730320930481</v>
+        <v>0.2745555639266968</v>
       </c>
       <c r="D4" t="n">
-        <v>-2.235522031784058</v>
+        <v>-0.4410614371299744</v>
       </c>
     </row>
     <row r="5">
@@ -493,13 +493,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.8366259336471558</v>
+        <v>0.9655243754386902</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5976086854934692</v>
+        <v>0.2715840339660645</v>
       </c>
       <c r="D5" t="n">
-        <v>-2.234853744506836</v>
+        <v>-0.4412320852279663</v>
       </c>
     </row>
     <row r="6">
@@ -509,13 +509,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.7216670513153076</v>
+        <v>0.9563518166542053</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6217083930969238</v>
+        <v>0.2817181646823883</v>
       </c>
       <c r="D6" t="n">
-        <v>-2.231275320053101</v>
+        <v>-0.4651756286621094</v>
       </c>
     </row>
     <row r="7">
@@ -525,13 +525,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.6931496262550354</v>
+        <v>0.9535220265388489</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6246737241744995</v>
+        <v>0.2813752889633179</v>
       </c>
       <c r="D7" t="n">
-        <v>-2.232040643692017</v>
+        <v>-0.4653598666191101</v>
       </c>
     </row>
     <row r="8">
@@ -541,13 +541,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.6648892760276794</v>
+        <v>0.9504909515380859</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6285295486450195</v>
+        <v>0.281022846698761</v>
       </c>
       <c r="D8" t="n">
-        <v>-2.232551336288452</v>
+        <v>-0.4654780030250549</v>
       </c>
     </row>
     <row r="9">
@@ -557,13 +557,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.8646602630615234</v>
+        <v>0.9600555896759033</v>
       </c>
       <c r="C9" t="n">
-        <v>0.6005120277404785</v>
+        <v>0.254066526889801</v>
       </c>
       <c r="D9" t="n">
-        <v>-1.736495852470398</v>
+        <v>-0.3893772661685944</v>
       </c>
     </row>
     <row r="10">
@@ -573,13 +573,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.6293627619743347</v>
+        <v>0.9394123554229736</v>
       </c>
       <c r="C10" t="n">
-        <v>0.6430379152297974</v>
+        <v>0.2666108310222626</v>
       </c>
       <c r="D10" t="n">
-        <v>-1.704136729240417</v>
+        <v>-0.499106764793396</v>
       </c>
     </row>
     <row r="11">
@@ -589,13 +589,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.8112422227859497</v>
+        <v>0.9537783861160278</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7684520483016968</v>
+        <v>0.2907602488994598</v>
       </c>
       <c r="D11" t="n">
-        <v>-2.081579923629761</v>
+        <v>-0.4077913463115692</v>
       </c>
     </row>
     <row r="12">
@@ -605,13 +605,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.7277398705482483</v>
+        <v>0.9467233419418335</v>
       </c>
       <c r="C12" t="n">
-        <v>0.7830060720443726</v>
+        <v>0.2941917777061462</v>
       </c>
       <c r="D12" t="n">
-        <v>-2.073696613311768</v>
+        <v>-0.440613180398941</v>
       </c>
     </row>
     <row r="13">
@@ -621,13 +621,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1.014377474784851</v>
+        <v>0.9397523999214172</v>
       </c>
       <c r="C13" t="n">
-        <v>0.8518195152282715</v>
+        <v>0.2475615590810776</v>
       </c>
       <c r="D13" t="n">
-        <v>-1.299878478050232</v>
+        <v>-0.2594233155250549</v>
       </c>
     </row>
     <row r="14">
@@ -637,13 +637,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.5035035610198975</v>
+        <v>0.8935526013374329</v>
       </c>
       <c r="C14" t="n">
-        <v>0.9303897619247437</v>
+        <v>0.2990362644195557</v>
       </c>
       <c r="D14" t="n">
-        <v>-1.237982869148254</v>
+        <v>-0.4562541246414185</v>
       </c>
     </row>
     <row r="15">
@@ -653,13 +653,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1.303346633911133</v>
+        <v>0.9587349891662598</v>
       </c>
       <c r="C15" t="n">
-        <v>1.02097749710083</v>
+        <v>0.3441897034645081</v>
       </c>
       <c r="D15" t="n">
-        <v>-1.298089623451233</v>
+        <v>-0.1298947185277939</v>
       </c>
     </row>
     <row r="16">
@@ -669,13 +669,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.4382149577140808</v>
+        <v>0.888444185256958</v>
       </c>
       <c r="C16" t="n">
-        <v>1.394323348999023</v>
+        <v>0.4443470239639282</v>
       </c>
       <c r="D16" t="n">
-        <v>-1.570638060569763</v>
+        <v>-0.4161887168884277</v>
       </c>
     </row>
     <row r="17">
@@ -685,13 +685,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1.537835836410522</v>
+        <v>0.9531895518302917</v>
       </c>
       <c r="C17" t="n">
-        <v>1.102714061737061</v>
+        <v>0.414615660905838</v>
       </c>
       <c r="D17" t="n">
-        <v>-1.701698064804077</v>
+        <v>-0.05519234389066696</v>
       </c>
     </row>
     <row r="18">
@@ -701,13 +701,13 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.4396539330482483</v>
+        <v>0.8791388869285583</v>
       </c>
       <c r="C18" t="n">
-        <v>1.535362243652344</v>
+        <v>0.5781107544898987</v>
       </c>
       <c r="D18" t="n">
-        <v>-2.284915924072266</v>
+        <v>-0.3287962973117828</v>
       </c>
     </row>
     <row r="19">
@@ -717,13 +717,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1.629995465278625</v>
+        <v>0.9518092274665833</v>
       </c>
       <c r="C19" t="n">
-        <v>1.119854211807251</v>
+        <v>0.4321644902229309</v>
       </c>
       <c r="D19" t="n">
-        <v>-1.804222822189331</v>
+        <v>-0.04605624079704285</v>
       </c>
     </row>
     <row r="20">
@@ -733,13 +733,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.4238032400608063</v>
+        <v>0.8702155351638794</v>
       </c>
       <c r="C20" t="n">
-        <v>1.60657274723053</v>
+        <v>0.6174380779266357</v>
       </c>
       <c r="D20" t="n">
-        <v>-2.44911527633667</v>
+        <v>-0.3457708954811096</v>
       </c>
     </row>
     <row r="21">
@@ -749,13 +749,13 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>1.617857456207275</v>
+        <v>0.9531706571578979</v>
       </c>
       <c r="C21" t="n">
-        <v>1.138569355010986</v>
+        <v>0.4323002099990845</v>
       </c>
       <c r="D21" t="n">
-        <v>-1.926771640777588</v>
+        <v>-0.06609763950109482</v>
       </c>
     </row>
     <row r="22">
@@ -765,13 +765,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.439014732837677</v>
+        <v>0.8765168190002441</v>
       </c>
       <c r="C22" t="n">
-        <v>1.557592511177063</v>
+        <v>0.6151041388511658</v>
       </c>
       <c r="D22" t="n">
-        <v>-2.514503717422485</v>
+        <v>-0.3629499971866608</v>
       </c>
     </row>
     <row r="23">
@@ -781,13 +781,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1.567977666854858</v>
+        <v>0.9510999321937561</v>
       </c>
       <c r="C23" t="n">
-        <v>1.155787944793701</v>
+        <v>0.4291706681251526</v>
       </c>
       <c r="D23" t="n">
-        <v>-1.783798813819885</v>
+        <v>-0.06087702885270119</v>
       </c>
     </row>
     <row r="24">
@@ -797,13 +797,13 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.4614748060703278</v>
+        <v>0.8821782469749451</v>
       </c>
       <c r="C24" t="n">
-        <v>1.547008275985718</v>
+        <v>0.6001153588294983</v>
       </c>
       <c r="D24" t="n">
-        <v>-2.35308313369751</v>
+        <v>-0.3319065570831299</v>
       </c>
     </row>
     <row r="25">
@@ -813,13 +813,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.97967529296875</v>
+        <v>0.9118970632553101</v>
       </c>
       <c r="C25" t="n">
-        <v>1.77331018447876</v>
+        <v>0.3997060060501099</v>
       </c>
       <c r="D25" t="n">
-        <v>-0.01354861166328192</v>
+        <v>0.06828422099351883</v>
       </c>
     </row>
     <row r="26">
@@ -829,13 +829,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.628754198551178</v>
+        <v>0.8857809901237488</v>
       </c>
       <c r="C26" t="n">
-        <v>1.809567451477051</v>
+        <v>0.4290839731693268</v>
       </c>
       <c r="D26" t="n">
-        <v>0.02368264272809029</v>
+        <v>-0.06797656416893005</v>
       </c>
     </row>
     <row r="27">
@@ -845,13 +845,13 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.9429166316986084</v>
+        <v>0.9739056825637817</v>
       </c>
       <c r="C27" t="n">
-        <v>2.48084568977356</v>
+        <v>0.5363767147064209</v>
       </c>
       <c r="D27" t="n">
-        <v>-0.1704784631729126</v>
+        <v>0.1518931090831757</v>
       </c>
     </row>
     <row r="28">
@@ -861,13 +861,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.6387814283370972</v>
+        <v>0.9566400647163391</v>
       </c>
       <c r="C28" t="n">
-        <v>2.519517421722412</v>
+        <v>0.5663783550262451</v>
       </c>
       <c r="D28" t="n">
-        <v>0.1090418994426727</v>
+        <v>0.0008018871885724366</v>
       </c>
     </row>
     <row r="29">
@@ -877,13 +877,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.9101507663726807</v>
+        <v>0.9671622514724731</v>
       </c>
       <c r="C29" t="n">
-        <v>3.130628108978271</v>
+        <v>0.6545156240463257</v>
       </c>
       <c r="D29" t="n">
-        <v>0.7988314628601074</v>
+        <v>0.2491863071918488</v>
       </c>
     </row>
     <row r="30">
@@ -893,13 +893,13 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.6421743631362915</v>
+        <v>0.9460602998733521</v>
       </c>
       <c r="C30" t="n">
-        <v>3.142128944396973</v>
+        <v>0.667616069316864</v>
       </c>
       <c r="D30" t="n">
-        <v>0.6721708178520203</v>
+        <v>0.136838287115097</v>
       </c>
     </row>
     <row r="31">
@@ -909,13 +909,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.9131594300270081</v>
+        <v>0.9562035202980042</v>
       </c>
       <c r="C31" t="n">
-        <v>3.218072891235352</v>
+        <v>0.6715031266212463</v>
       </c>
       <c r="D31" t="n">
-        <v>0.8975979089736938</v>
+        <v>0.2595594525337219</v>
       </c>
     </row>
     <row r="32">
@@ -925,13 +925,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.6460930109024048</v>
+        <v>0.9312922954559326</v>
       </c>
       <c r="C32" t="n">
-        <v>3.225492715835571</v>
+        <v>0.6776280999183655</v>
       </c>
       <c r="D32" t="n">
-        <v>0.721373438835144</v>
+        <v>0.1543739289045334</v>
       </c>
     </row>
     <row r="33">
@@ -941,13 +941,13 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.8498926758766174</v>
+        <v>0.991442084312439</v>
       </c>
       <c r="C33" t="n">
-        <v>3.352009296417236</v>
+        <v>0.6891297101974487</v>
       </c>
       <c r="D33" t="n">
-        <v>0.4030510485172272</v>
+        <v>0.2370391935110092</v>
       </c>
     </row>
   </sheetData>

--- a/Test/landmarks.xlsx
+++ b/Test/landmarks.xlsx
@@ -445,13 +445,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9576131701469421</v>
+        <v>0.4016460478305817</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2939626574516296</v>
+        <v>0.7913495302200317</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.438229501247406</v>
+        <v>-1.852436184883118</v>
       </c>
     </row>
     <row r="3">
@@ -461,13 +461,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9622766375541687</v>
+        <v>0.4224000871181488</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2775117754936218</v>
+        <v>0.7107369899749756</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.4409414231777191</v>
+        <v>-1.816360831260681</v>
       </c>
     </row>
     <row r="4">
@@ -477,13 +477,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9638760089874268</v>
+        <v>0.4406351447105408</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2745555639266968</v>
+        <v>0.7058742046356201</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.4410614371299744</v>
+        <v>-1.815935850143433</v>
       </c>
     </row>
     <row r="5">
@@ -493,13 +493,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9655243754386902</v>
+        <v>0.4576495587825775</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2715840339660645</v>
+        <v>0.700437068939209</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.4412320852279663</v>
+        <v>-1.815624594688416</v>
       </c>
     </row>
     <row r="6">
@@ -509,13 +509,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9563518166542053</v>
+        <v>0.3677990436553955</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2817181646823883</v>
+        <v>0.7158017158508301</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.4651756286621094</v>
+        <v>-1.839642524719238</v>
       </c>
     </row>
     <row r="7">
@@ -525,13 +525,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9535220265388489</v>
+        <v>0.3432671427726746</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2813752889633179</v>
+        <v>0.7150267362594604</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.4653598666191101</v>
+        <v>-1.840124011039734</v>
       </c>
     </row>
     <row r="8">
@@ -541,13 +541,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9504909515380859</v>
+        <v>0.3165470063686371</v>
       </c>
       <c r="C8" t="n">
-        <v>0.281022846698761</v>
+        <v>0.715132474899292</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.4654780030250549</v>
+        <v>-1.839890956878662</v>
       </c>
     </row>
     <row r="9">
@@ -557,13 +557,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9600555896759033</v>
+        <v>0.4687948822975159</v>
       </c>
       <c r="C9" t="n">
-        <v>0.254066526889801</v>
+        <v>0.6927602291107178</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.3893772661685944</v>
+        <v>-1.387817859649658</v>
       </c>
     </row>
     <row r="10">
@@ -573,13 +573,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9394123554229736</v>
+        <v>0.2612117230892181</v>
       </c>
       <c r="C10" t="n">
-        <v>0.2666108310222626</v>
+        <v>0.722450852394104</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.499106764793396</v>
+        <v>-1.487586855888367</v>
       </c>
     </row>
     <row r="11">
@@ -589,13 +589,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9537783861160278</v>
+        <v>0.4282933175563812</v>
       </c>
       <c r="C11" t="n">
-        <v>0.2907602488994598</v>
+        <v>0.8572349548339844</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.4077913463115692</v>
+        <v>-1.666279315948486</v>
       </c>
     </row>
     <row r="12">
@@ -605,13 +605,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9467233419418335</v>
+        <v>0.3658212423324585</v>
       </c>
       <c r="C12" t="n">
-        <v>0.2941917777061462</v>
+        <v>0.8711111545562744</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.440613180398941</v>
+        <v>-1.696612477302551</v>
       </c>
     </row>
     <row r="13">
@@ -621,13 +621,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.9397523999214172</v>
+        <v>0.5856950879096985</v>
       </c>
       <c r="C13" t="n">
-        <v>0.2475615590810776</v>
+        <v>0.9600844383239746</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.2594233155250549</v>
+        <v>-0.986735463142395</v>
       </c>
     </row>
     <row r="14">
@@ -637,13 +637,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.8935526013374329</v>
+        <v>0.1117269396781921</v>
       </c>
       <c r="C14" t="n">
-        <v>0.2990362644195557</v>
+        <v>1.00208055973053</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.4562541246414185</v>
+        <v>-1.098317503929138</v>
       </c>
     </row>
     <row r="15">
@@ -653,13 +653,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.9587349891662598</v>
+        <v>0.6148840188980103</v>
       </c>
       <c r="C15" t="n">
-        <v>0.3441897034645081</v>
+        <v>1.349770545959473</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.1298947185277939</v>
+        <v>-0.7933826446533203</v>
       </c>
     </row>
     <row r="16">
@@ -669,13 +669,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.888444185256958</v>
+        <v>0.08592498302459717</v>
       </c>
       <c r="C16" t="n">
-        <v>0.4443470239639282</v>
+        <v>1.512516260147095</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.4161887168884277</v>
+        <v>-1.149381160736084</v>
       </c>
     </row>
     <row r="17">
@@ -685,13 +685,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.9531895518302917</v>
+        <v>0.6899950504302979</v>
       </c>
       <c r="C17" t="n">
-        <v>0.414615660905838</v>
+        <v>1.779657602310181</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.05519234389066696</v>
+        <v>-1.070992946624756</v>
       </c>
     </row>
     <row r="18">
@@ -701,13 +701,13 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.8791388869285583</v>
+        <v>0.07534077763557434</v>
       </c>
       <c r="C18" t="n">
-        <v>0.5781107544898987</v>
+        <v>1.869272232055664</v>
       </c>
       <c r="D18" t="n">
-        <v>-0.3287962973117828</v>
+        <v>-1.489181876182556</v>
       </c>
     </row>
     <row r="19">
@@ -717,13 +717,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.9518092274665833</v>
+        <v>0.7179410457611084</v>
       </c>
       <c r="C19" t="n">
-        <v>0.4321644902229309</v>
+        <v>1.90906834602356</v>
       </c>
       <c r="D19" t="n">
-        <v>-0.04605624079704285</v>
+        <v>-1.142067670822144</v>
       </c>
     </row>
     <row r="20">
@@ -733,13 +733,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.8702155351638794</v>
+        <v>0.04533657431602478</v>
       </c>
       <c r="C20" t="n">
-        <v>0.6174380779266357</v>
+        <v>1.987329721450806</v>
       </c>
       <c r="D20" t="n">
-        <v>-0.3457708954811096</v>
+        <v>-1.599828124046326</v>
       </c>
     </row>
     <row r="21">
@@ -749,13 +749,13 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.9531706571578979</v>
+        <v>0.6862183809280396</v>
       </c>
       <c r="C21" t="n">
-        <v>0.4323002099990845</v>
+        <v>1.911380171775818</v>
       </c>
       <c r="D21" t="n">
-        <v>-0.06609763950109482</v>
+        <v>-1.245028853416443</v>
       </c>
     </row>
     <row r="22">
@@ -765,13 +765,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.8765168190002441</v>
+        <v>0.080961674451828</v>
       </c>
       <c r="C22" t="n">
-        <v>0.6151041388511658</v>
+        <v>1.978803157806396</v>
       </c>
       <c r="D22" t="n">
-        <v>-0.3629499971866608</v>
+        <v>-1.69195032119751</v>
       </c>
     </row>
     <row r="23">
@@ -781,13 +781,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.9510999321937561</v>
+        <v>0.6598155498504639</v>
       </c>
       <c r="C23" t="n">
-        <v>0.4291706681251526</v>
+        <v>1.868492007255554</v>
       </c>
       <c r="D23" t="n">
-        <v>-0.06087702885270119</v>
+        <v>-1.128769993782043</v>
       </c>
     </row>
     <row r="24">
@@ -797,13 +797,13 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.8821782469749451</v>
+        <v>0.108155220746994</v>
       </c>
       <c r="C24" t="n">
-        <v>0.6001153588294983</v>
+        <v>1.935844302177429</v>
       </c>
       <c r="D24" t="n">
-        <v>-0.3319065570831299</v>
+        <v>-1.547359108924866</v>
       </c>
     </row>
     <row r="25">
@@ -813,13 +813,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.9118970632553101</v>
+        <v>0.5316544771194458</v>
       </c>
       <c r="C25" t="n">
-        <v>0.3997060060501099</v>
+        <v>1.834850549697876</v>
       </c>
       <c r="D25" t="n">
-        <v>0.06828422099351883</v>
+        <v>0.06631316989660263</v>
       </c>
     </row>
     <row r="26">
@@ -829,13 +829,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.8857809901237488</v>
+        <v>0.2284922301769257</v>
       </c>
       <c r="C26" t="n">
-        <v>0.4290839731693268</v>
+        <v>1.873178720474243</v>
       </c>
       <c r="D26" t="n">
-        <v>-0.06797656416893005</v>
+        <v>-0.05773939192295074</v>
       </c>
     </row>
     <row r="27">
@@ -845,13 +845,13 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.9739056825637817</v>
+        <v>0.5506666898727417</v>
       </c>
       <c r="C27" t="n">
-        <v>0.5363767147064209</v>
+        <v>2.504915475845337</v>
       </c>
       <c r="D27" t="n">
-        <v>0.1518931090831757</v>
+        <v>0.240598052740097</v>
       </c>
     </row>
     <row r="28">
@@ -861,13 +861,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.9566400647163391</v>
+        <v>0.263178676366806</v>
       </c>
       <c r="C28" t="n">
-        <v>0.5663783550262451</v>
+        <v>2.572503805160522</v>
       </c>
       <c r="D28" t="n">
-        <v>0.0008018871885724366</v>
+        <v>0.1321035325527191</v>
       </c>
     </row>
     <row r="29">
@@ -877,13 +877,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.9671622514724731</v>
+        <v>0.541908860206604</v>
       </c>
       <c r="C29" t="n">
-        <v>0.6545156240463257</v>
+        <v>3.037482261657715</v>
       </c>
       <c r="D29" t="n">
-        <v>0.2491863071918488</v>
+        <v>1.128123760223389</v>
       </c>
     </row>
     <row r="30">
@@ -893,13 +893,13 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.9460602998733521</v>
+        <v>0.269225150346756</v>
       </c>
       <c r="C30" t="n">
-        <v>0.667616069316864</v>
+        <v>3.147549152374268</v>
       </c>
       <c r="D30" t="n">
-        <v>0.136838287115097</v>
+        <v>0.6503511667251587</v>
       </c>
     </row>
     <row r="31">
@@ -909,13 +909,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.9562035202980042</v>
+        <v>0.5420704483985901</v>
       </c>
       <c r="C31" t="n">
-        <v>0.6715031266212463</v>
+        <v>3.112783908843994</v>
       </c>
       <c r="D31" t="n">
-        <v>0.2595594525337219</v>
+        <v>1.232008218765259</v>
       </c>
     </row>
     <row r="32">
@@ -925,13 +925,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.9312922954559326</v>
+        <v>0.2598059773445129</v>
       </c>
       <c r="C32" t="n">
-        <v>0.6776280999183655</v>
+        <v>3.230003356933594</v>
       </c>
       <c r="D32" t="n">
-        <v>0.1543739289045334</v>
+        <v>0.7035526037216187</v>
       </c>
     </row>
     <row r="33">
@@ -941,13 +941,13 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.991442084312439</v>
+        <v>0.5288156270980835</v>
       </c>
       <c r="C33" t="n">
-        <v>0.6891297101974487</v>
+        <v>3.272534370422363</v>
       </c>
       <c r="D33" t="n">
-        <v>0.2370391935110092</v>
+        <v>0.9588751196861267</v>
       </c>
     </row>
   </sheetData>

--- a/Test/landmarks.xlsx
+++ b/Test/landmarks.xlsx
@@ -445,13 +445,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.4016460478305817</v>
+        <v>0.5089614987373352</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7913495302200317</v>
+        <v>0.6568803787231445</v>
       </c>
       <c r="D2" t="n">
-        <v>-1.852436184883118</v>
+        <v>-1.480104207992554</v>
       </c>
     </row>
     <row r="3">
@@ -461,13 +461,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.4224000871181488</v>
+        <v>0.5347570180892944</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7107369899749756</v>
+        <v>0.5722794532775879</v>
       </c>
       <c r="D3" t="n">
-        <v>-1.816360831260681</v>
+        <v>-1.406531453132629</v>
       </c>
     </row>
     <row r="4">
@@ -477,13 +477,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.4406351447105408</v>
+        <v>0.5514414310455322</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7058742046356201</v>
+        <v>0.5693655014038086</v>
       </c>
       <c r="D4" t="n">
-        <v>-1.815935850143433</v>
+        <v>-1.406092643737793</v>
       </c>
     </row>
     <row r="5">
@@ -493,13 +493,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.4576495587825775</v>
+        <v>0.5681486129760742</v>
       </c>
       <c r="C5" t="n">
-        <v>0.700437068939209</v>
+        <v>0.5667190551757812</v>
       </c>
       <c r="D5" t="n">
-        <v>-1.815624594688416</v>
+        <v>-1.40591025352478</v>
       </c>
     </row>
     <row r="6">
@@ -509,13 +509,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.3677990436553955</v>
+        <v>0.4769651889801025</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7158017158508301</v>
+        <v>0.5810781717300415</v>
       </c>
       <c r="D6" t="n">
-        <v>-1.839642524719238</v>
+        <v>-1.41686749458313</v>
       </c>
     </row>
     <row r="7">
@@ -525,13 +525,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.3432671427726746</v>
+        <v>0.4518716931343079</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7150267362594604</v>
+        <v>0.584109902381897</v>
       </c>
       <c r="D7" t="n">
-        <v>-1.840124011039734</v>
+        <v>-1.416973829269409</v>
       </c>
     </row>
     <row r="8">
@@ -541,13 +541,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.3165470063686371</v>
+        <v>0.4253484010696411</v>
       </c>
       <c r="C8" t="n">
-        <v>0.715132474899292</v>
+        <v>0.5883164405822754</v>
       </c>
       <c r="D8" t="n">
-        <v>-1.839890956878662</v>
+        <v>-1.416805148124695</v>
       </c>
     </row>
     <row r="9">
@@ -557,13 +557,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.4687948822975159</v>
+        <v>0.5958430767059326</v>
       </c>
       <c r="C9" t="n">
-        <v>0.6927602291107178</v>
+        <v>0.5789059400558472</v>
       </c>
       <c r="D9" t="n">
-        <v>-1.387817859649658</v>
+        <v>-0.8844544291496277</v>
       </c>
     </row>
     <row r="10">
@@ -573,13 +573,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.2612117230892181</v>
+        <v>0.3863605558872223</v>
       </c>
       <c r="C10" t="n">
-        <v>0.722450852394104</v>
+        <v>0.6117019653320312</v>
       </c>
       <c r="D10" t="n">
-        <v>-1.487586855888367</v>
+        <v>-0.9398233294487</v>
       </c>
     </row>
     <row r="11">
@@ -589,13 +589,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.4282933175563812</v>
+        <v>0.5430096387863159</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8572349548339844</v>
+        <v>0.713187575340271</v>
       </c>
       <c r="D11" t="n">
-        <v>-1.666279315948486</v>
+        <v>-1.276617527008057</v>
       </c>
     </row>
     <row r="12">
@@ -605,13 +605,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.3658212423324585</v>
+        <v>0.4673384726047516</v>
       </c>
       <c r="C12" t="n">
-        <v>0.8711111545562744</v>
+        <v>0.7205886840820312</v>
       </c>
       <c r="D12" t="n">
-        <v>-1.696612477302551</v>
+        <v>-1.294155597686768</v>
       </c>
     </row>
     <row r="13">
@@ -621,13 +621,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.5856950879096985</v>
+        <v>0.7482417225837708</v>
       </c>
       <c r="C13" t="n">
-        <v>0.9600844383239746</v>
+        <v>0.8873835802078247</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.986735463142395</v>
+        <v>-0.5808488130569458</v>
       </c>
     </row>
     <row r="14">
@@ -637,13 +637,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.1117269396781921</v>
+        <v>0.23955038189888</v>
       </c>
       <c r="C14" t="n">
-        <v>1.00208055973053</v>
+        <v>0.9233824014663696</v>
       </c>
       <c r="D14" t="n">
-        <v>-1.098317503929138</v>
+        <v>-0.6229974627494812</v>
       </c>
     </row>
     <row r="15">
@@ -653,13 +653,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.6148840188980103</v>
+        <v>0.8404577374458313</v>
       </c>
       <c r="C15" t="n">
-        <v>1.349770545959473</v>
+        <v>1.210239410400391</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.7933826446533203</v>
+        <v>-0.6425236463546753</v>
       </c>
     </row>
     <row r="16">
@@ -669,13 +669,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.08592498302459717</v>
+        <v>0.06499961018562317</v>
       </c>
       <c r="C16" t="n">
-        <v>1.512516260147095</v>
+        <v>1.286844968795776</v>
       </c>
       <c r="D16" t="n">
-        <v>-1.149381160736084</v>
+        <v>-0.9423378109931946</v>
       </c>
     </row>
     <row r="17">
@@ -685,13 +685,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.6899950504302979</v>
+        <v>0.8521894812583923</v>
       </c>
       <c r="C17" t="n">
-        <v>1.779657602310181</v>
+        <v>1.598910331726074</v>
       </c>
       <c r="D17" t="n">
-        <v>-1.070992946624756</v>
+        <v>-1.222583174705505</v>
       </c>
     </row>
     <row r="18">
@@ -701,13 +701,13 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.07534077763557434</v>
+        <v>0.1144781112670898</v>
       </c>
       <c r="C18" t="n">
-        <v>1.869272232055664</v>
+        <v>1.540557026863098</v>
       </c>
       <c r="D18" t="n">
-        <v>-1.489181876182556</v>
+        <v>-1.76792299747467</v>
       </c>
     </row>
     <row r="19">
@@ -717,13 +717,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.7179410457611084</v>
+        <v>0.8899921178817749</v>
       </c>
       <c r="C19" t="n">
-        <v>1.90906834602356</v>
+        <v>1.723745226860046</v>
       </c>
       <c r="D19" t="n">
-        <v>-1.142067670822144</v>
+        <v>-1.358230471611023</v>
       </c>
     </row>
     <row r="20">
@@ -733,13 +733,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.04533657431602478</v>
+        <v>0.09421384334564209</v>
       </c>
       <c r="C20" t="n">
-        <v>1.987329721450806</v>
+        <v>1.638841986656189</v>
       </c>
       <c r="D20" t="n">
-        <v>-1.599828124046326</v>
+        <v>-1.973893404006958</v>
       </c>
     </row>
     <row r="21">
@@ -749,13 +749,13 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.6862183809280396</v>
+        <v>0.8453267812728882</v>
       </c>
       <c r="C21" t="n">
-        <v>1.911380171775818</v>
+        <v>1.736019134521484</v>
       </c>
       <c r="D21" t="n">
-        <v>-1.245028853416443</v>
+        <v>-1.476720333099365</v>
       </c>
     </row>
     <row r="22">
@@ -765,13 +765,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.080961674451828</v>
+        <v>0.1584735810756683</v>
       </c>
       <c r="C22" t="n">
-        <v>1.978803157806396</v>
+        <v>1.633534789085388</v>
       </c>
       <c r="D22" t="n">
-        <v>-1.69195032119751</v>
+        <v>-2.025687456130981</v>
       </c>
     </row>
     <row r="23">
@@ -781,13 +781,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.6598155498504639</v>
+        <v>0.8249351978302002</v>
       </c>
       <c r="C23" t="n">
-        <v>1.868492007255554</v>
+        <v>1.695374727249146</v>
       </c>
       <c r="D23" t="n">
-        <v>-1.128769993782043</v>
+        <v>-1.297112107276917</v>
       </c>
     </row>
     <row r="24">
@@ -797,13 +797,13 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.108155220746994</v>
+        <v>0.1740736961364746</v>
       </c>
       <c r="C24" t="n">
-        <v>1.935844302177429</v>
+        <v>1.603783488273621</v>
       </c>
       <c r="D24" t="n">
-        <v>-1.547359108924866</v>
+        <v>-1.826778292655945</v>
       </c>
     </row>
     <row r="25">
@@ -813,13 +813,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.5316544771194458</v>
+        <v>0.6823026537895203</v>
       </c>
       <c r="C25" t="n">
-        <v>1.834850549697876</v>
+        <v>1.753844141960144</v>
       </c>
       <c r="D25" t="n">
-        <v>0.06631316989660263</v>
+        <v>0.0385972261428833</v>
       </c>
     </row>
     <row r="26">
@@ -829,13 +829,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.2284922301769257</v>
+        <v>0.3562247753143311</v>
       </c>
       <c r="C26" t="n">
-        <v>1.873178720474243</v>
+        <v>1.782027721405029</v>
       </c>
       <c r="D26" t="n">
-        <v>-0.05773939192295074</v>
+        <v>-0.02781655825674534</v>
       </c>
     </row>
     <row r="27">
@@ -845,13 +845,13 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.5506666898727417</v>
+        <v>0.6954945921897888</v>
       </c>
       <c r="C27" t="n">
-        <v>2.504915475845337</v>
+        <v>2.406589984893799</v>
       </c>
       <c r="D27" t="n">
-        <v>0.240598052740097</v>
+        <v>-0.1599805504083633</v>
       </c>
     </row>
     <row r="28">
@@ -861,13 +861,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.263178676366806</v>
+        <v>0.3721657395362854</v>
       </c>
       <c r="C28" t="n">
-        <v>2.572503805160522</v>
+        <v>2.391157865524292</v>
       </c>
       <c r="D28" t="n">
-        <v>0.1321035325527191</v>
+        <v>-0.4433868825435638</v>
       </c>
     </row>
     <row r="29">
@@ -877,13 +877,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.541908860206604</v>
+        <v>0.6965423822402954</v>
       </c>
       <c r="C29" t="n">
-        <v>3.037482261657715</v>
+        <v>3.000548839569092</v>
       </c>
       <c r="D29" t="n">
-        <v>1.128123760223389</v>
+        <v>0.6822037696838379</v>
       </c>
     </row>
     <row r="30">
@@ -893,13 +893,13 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.269225150346756</v>
+        <v>0.4187969565391541</v>
       </c>
       <c r="C30" t="n">
-        <v>3.147549152374268</v>
+        <v>2.991752862930298</v>
       </c>
       <c r="D30" t="n">
-        <v>0.6503511667251587</v>
+        <v>0.2171525657176971</v>
       </c>
     </row>
     <row r="31">
@@ -909,13 +909,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.5420704483985901</v>
+        <v>0.6937844753265381</v>
       </c>
       <c r="C31" t="n">
-        <v>3.112783908843994</v>
+        <v>3.098507165908813</v>
       </c>
       <c r="D31" t="n">
-        <v>1.232008218765259</v>
+        <v>0.7650887370109558</v>
       </c>
     </row>
     <row r="32">
@@ -925,13 +925,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.2598059773445129</v>
+        <v>0.424230694770813</v>
       </c>
       <c r="C32" t="n">
-        <v>3.230003356933594</v>
+        <v>3.090535163879395</v>
       </c>
       <c r="D32" t="n">
-        <v>0.7035526037216187</v>
+        <v>0.2662488222122192</v>
       </c>
     </row>
     <row r="33">
@@ -941,13 +941,13 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.5288156270980835</v>
+        <v>0.6728053689002991</v>
       </c>
       <c r="C33" t="n">
-        <v>3.272534370422363</v>
+        <v>3.200424194335938</v>
       </c>
       <c r="D33" t="n">
-        <v>0.9588751196861267</v>
+        <v>0.3454841673374176</v>
       </c>
     </row>
   </sheetData>

--- a/Test/landmarks.xlsx
+++ b/Test/landmarks.xlsx
@@ -445,13 +445,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.5089614987373352</v>
+        <v>0.433436781167984</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6568803787231445</v>
+        <v>0.2254154682159424</v>
       </c>
       <c r="D2" t="n">
-        <v>-1.480104207992554</v>
+        <v>-2.080613136291504</v>
       </c>
     </row>
     <row r="3">
@@ -461,13 +461,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.5347570180892944</v>
+        <v>0.4770793318748474</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5722794532775879</v>
+        <v>0.1328295469284058</v>
       </c>
       <c r="D3" t="n">
-        <v>-1.406531453132629</v>
+        <v>-1.990673899650574</v>
       </c>
     </row>
     <row r="4">
@@ -477,13 +477,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.5514414310455322</v>
+        <v>0.5013003349304199</v>
       </c>
       <c r="C4" t="n">
-        <v>0.5693655014038086</v>
+        <v>0.1377614736557007</v>
       </c>
       <c r="D4" t="n">
-        <v>-1.406092643737793</v>
+        <v>-1.989561796188354</v>
       </c>
     </row>
     <row r="5">
@@ -493,13 +493,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.5681486129760742</v>
+        <v>0.5238044261932373</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5667190551757812</v>
+        <v>0.1408274173736572</v>
       </c>
       <c r="D5" t="n">
-        <v>-1.40591025352478</v>
+        <v>-1.988627552986145</v>
       </c>
     </row>
     <row r="6">
@@ -509,13 +509,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.4769651889801025</v>
+        <v>0.4035339951515198</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5810781717300415</v>
+        <v>0.1195060014724731</v>
       </c>
       <c r="D6" t="n">
-        <v>-1.41686749458313</v>
+        <v>-2.031433582305908</v>
       </c>
     </row>
     <row r="7">
@@ -525,13 +525,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.4518716931343079</v>
+        <v>0.3753271102905273</v>
       </c>
       <c r="C7" t="n">
-        <v>0.584109902381897</v>
+        <v>0.1134638786315918</v>
       </c>
       <c r="D7" t="n">
-        <v>-1.416973829269409</v>
+        <v>-2.031587362289429</v>
       </c>
     </row>
     <row r="8">
@@ -541,13 +541,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.4253484010696411</v>
+        <v>0.3429425656795502</v>
       </c>
       <c r="C8" t="n">
-        <v>0.5883164405822754</v>
+        <v>0.1041275262832642</v>
       </c>
       <c r="D8" t="n">
-        <v>-1.416805148124695</v>
+        <v>-2.031070709228516</v>
       </c>
     </row>
     <row r="9">
@@ -557,13 +557,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.5958430767059326</v>
+        <v>0.5478944778442383</v>
       </c>
       <c r="C9" t="n">
-        <v>0.5789059400558472</v>
+        <v>0.1575342416763306</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.8844544291496277</v>
+        <v>-1.327423453330994</v>
       </c>
     </row>
     <row r="10">
@@ -573,13 +573,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.3863605558872223</v>
+        <v>0.2706590592861176</v>
       </c>
       <c r="C10" t="n">
-        <v>0.6117019653320312</v>
+        <v>0.09711205959320068</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.9398233294487</v>
+        <v>-1.517768502235413</v>
       </c>
     </row>
     <row r="11">
@@ -589,13 +589,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.5430096387863159</v>
+        <v>0.463491827249527</v>
       </c>
       <c r="C11" t="n">
-        <v>0.713187575340271</v>
+        <v>0.3032582998275757</v>
       </c>
       <c r="D11" t="n">
-        <v>-1.276617527008057</v>
+        <v>-1.81809389591217</v>
       </c>
     </row>
     <row r="12">
@@ -605,13 +605,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.4673384726047516</v>
+        <v>0.379347175359726</v>
       </c>
       <c r="C12" t="n">
-        <v>0.7205886840820312</v>
+        <v>0.299140453338623</v>
       </c>
       <c r="D12" t="n">
-        <v>-1.294155597686768</v>
+        <v>-1.875986576080322</v>
       </c>
     </row>
     <row r="13">
@@ -621,13 +621,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.7482417225837708</v>
+        <v>0.6501411199569702</v>
       </c>
       <c r="C13" t="n">
-        <v>0.8873835802078247</v>
+        <v>0.471906304359436</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.5808488130569458</v>
+        <v>-0.8273208141326904</v>
       </c>
     </row>
     <row r="14">
@@ -637,13 +637,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.23955038189888</v>
+        <v>0.0824524462223053</v>
       </c>
       <c r="C14" t="n">
-        <v>0.9233824014663696</v>
+        <v>0.4209164381027222</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.6229974627494812</v>
+        <v>-1.093935489654541</v>
       </c>
     </row>
     <row r="15">
@@ -653,13 +653,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.8404577374458313</v>
+        <v>0.7105321884155273</v>
       </c>
       <c r="C15" t="n">
-        <v>1.210239410400391</v>
+        <v>0.8989714384078979</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.6425236463546753</v>
+        <v>-0.607015073299408</v>
       </c>
     </row>
     <row r="16">
@@ -669,13 +669,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.06499961018562317</v>
+        <v>-0.07490256428718567</v>
       </c>
       <c r="C16" t="n">
-        <v>1.286844968795776</v>
+        <v>0.9619618654251099</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.9423378109931946</v>
+        <v>-1.088444471359253</v>
       </c>
     </row>
     <row r="17">
@@ -685,13 +685,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.8521894812583923</v>
+        <v>0.7629367113113403</v>
       </c>
       <c r="C17" t="n">
-        <v>1.598910331726074</v>
+        <v>1.361509799957275</v>
       </c>
       <c r="D17" t="n">
-        <v>-1.222583174705505</v>
+        <v>-1.063103556632996</v>
       </c>
     </row>
     <row r="18">
@@ -701,13 +701,13 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.1144781112670898</v>
+        <v>-0.07467937469482422</v>
       </c>
       <c r="C18" t="n">
-        <v>1.540557026863098</v>
+        <v>1.448148012161255</v>
       </c>
       <c r="D18" t="n">
-        <v>-1.76792299747467</v>
+        <v>-1.481983184814453</v>
       </c>
     </row>
     <row r="19">
@@ -717,13 +717,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.8899921178817749</v>
+        <v>0.8103178739547729</v>
       </c>
       <c r="C19" t="n">
-        <v>1.723745226860046</v>
+        <v>1.512354850769043</v>
       </c>
       <c r="D19" t="n">
-        <v>-1.358230471611023</v>
+        <v>-1.170901298522949</v>
       </c>
     </row>
     <row r="20">
@@ -733,13 +733,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.09421384334564209</v>
+        <v>-0.1336365938186646</v>
       </c>
       <c r="C20" t="n">
-        <v>1.638841986656189</v>
+        <v>1.603025913238525</v>
       </c>
       <c r="D20" t="n">
-        <v>-1.973893404006958</v>
+        <v>-1.626079201698303</v>
       </c>
     </row>
     <row r="21">
@@ -749,13 +749,13 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.8453267812728882</v>
+        <v>0.7427854537963867</v>
       </c>
       <c r="C21" t="n">
-        <v>1.736019134521484</v>
+        <v>1.542598009109497</v>
       </c>
       <c r="D21" t="n">
-        <v>-1.476720333099365</v>
+        <v>-1.302578330039978</v>
       </c>
     </row>
     <row r="22">
@@ -765,13 +765,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.1584735810756683</v>
+        <v>-0.0484958291053772</v>
       </c>
       <c r="C22" t="n">
-        <v>1.633534789085388</v>
+        <v>1.64228892326355</v>
       </c>
       <c r="D22" t="n">
-        <v>-2.025687456130981</v>
+        <v>-1.749237179756165</v>
       </c>
     </row>
     <row r="23">
@@ -781,13 +781,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.8249351978302002</v>
+        <v>0.7182053327560425</v>
       </c>
       <c r="C23" t="n">
-        <v>1.695374727249146</v>
+        <v>1.490041136741638</v>
       </c>
       <c r="D23" t="n">
-        <v>-1.297112107276917</v>
+        <v>-1.144638657569885</v>
       </c>
     </row>
     <row r="24">
@@ -797,13 +797,13 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.1740736961364746</v>
+        <v>-0.01800441741943359</v>
       </c>
       <c r="C24" t="n">
-        <v>1.603783488273621</v>
+        <v>1.588238000869751</v>
       </c>
       <c r="D24" t="n">
-        <v>-1.826778292655945</v>
+        <v>-1.560701012611389</v>
       </c>
     </row>
     <row r="25">
@@ -813,13 +813,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.6823026537895203</v>
+        <v>0.5423943400382996</v>
       </c>
       <c r="C25" t="n">
-        <v>1.753844141960144</v>
+        <v>1.445549845695496</v>
       </c>
       <c r="D25" t="n">
-        <v>0.0385972261428833</v>
+        <v>0.1347035616636276</v>
       </c>
     </row>
     <row r="26">
@@ -829,13 +829,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.3562247753143311</v>
+        <v>0.1586802303791046</v>
       </c>
       <c r="C26" t="n">
-        <v>1.782027721405029</v>
+        <v>1.454947710037231</v>
       </c>
       <c r="D26" t="n">
-        <v>-0.02781655825674534</v>
+        <v>-0.1205399483442307</v>
       </c>
     </row>
     <row r="27">
@@ -845,13 +845,13 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.6954945921897888</v>
+        <v>0.5710979700088501</v>
       </c>
       <c r="C27" t="n">
-        <v>2.406589984893799</v>
+        <v>2.286378383636475</v>
       </c>
       <c r="D27" t="n">
-        <v>-0.1599805504083633</v>
+        <v>-0.05727650225162506</v>
       </c>
     </row>
     <row r="28">
@@ -861,13 +861,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.3721657395362854</v>
+        <v>0.2007696479558945</v>
       </c>
       <c r="C28" t="n">
-        <v>2.391157865524292</v>
+        <v>2.272063016891479</v>
       </c>
       <c r="D28" t="n">
-        <v>-0.4433868825435638</v>
+        <v>-0.3411382436752319</v>
       </c>
     </row>
     <row r="29">
@@ -877,13 +877,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.6965423822402954</v>
+        <v>0.5847094058990479</v>
       </c>
       <c r="C29" t="n">
-        <v>3.000548839569092</v>
+        <v>2.968083381652832</v>
       </c>
       <c r="D29" t="n">
-        <v>0.6822037696838379</v>
+        <v>0.7206181287765503</v>
       </c>
     </row>
     <row r="30">
@@ -893,13 +893,13 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.4187969565391541</v>
+        <v>0.2266538590192795</v>
       </c>
       <c r="C30" t="n">
-        <v>2.991752862930298</v>
+        <v>2.957289695739746</v>
       </c>
       <c r="D30" t="n">
-        <v>0.2171525657176971</v>
+        <v>0.2399456799030304</v>
       </c>
     </row>
     <row r="31">
@@ -909,13 +909,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.6937844753265381</v>
+        <v>0.5876047611236572</v>
       </c>
       <c r="C31" t="n">
-        <v>3.098507165908813</v>
+        <v>3.090125799179077</v>
       </c>
       <c r="D31" t="n">
-        <v>0.7650887370109558</v>
+        <v>0.806099534034729</v>
       </c>
     </row>
     <row r="32">
@@ -925,13 +925,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.424230694770813</v>
+        <v>0.2169216573238373</v>
       </c>
       <c r="C32" t="n">
-        <v>3.090535163879395</v>
+        <v>3.075714588165283</v>
       </c>
       <c r="D32" t="n">
-        <v>0.2662488222122192</v>
+        <v>0.2870945036411285</v>
       </c>
     </row>
     <row r="33">
@@ -941,13 +941,13 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.6728053689002991</v>
+        <v>0.5557888746261597</v>
       </c>
       <c r="C33" t="n">
-        <v>3.200424194335938</v>
+        <v>3.199567794799805</v>
       </c>
       <c r="D33" t="n">
-        <v>0.3454841673374176</v>
+        <v>0.3606448173522949</v>
       </c>
     </row>
   </sheetData>
